--- a/Metal_ERP/src/00Plan/ERP업무계획일정표_V1.xlsx
+++ b/Metal_ERP/src/00Plan/ERP업무계획일정표_V1.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ERP\WBS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8135817B-A29E-4F0C-98DB-1F4365C74B1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7A07AA0F-8A2A-48EF-A62A-206E9EF33989}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="29070" windowHeight="16500" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERP" sheetId="6" r:id="rId1"/>
@@ -21,9 +16,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ERP!$A:$H,ERP!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -442,9 +443,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="m&quot;/&quot;d;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -884,14 +885,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,16 +905,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -922,7 +923,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,6 +965,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,7 +1055,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,74 +1097,11 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1960,13 +1967,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:CW27"/>
+  <dimension ref="A1:CX27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="BN22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2012,163 +2019,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="28.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:101" ht="23.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54">
         <v>43735</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="54"/>
       <c r="E2"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:101" ht="6" customHeight="1"/>
     <row r="4" spans="1:101" s="3" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="45" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="45" t="s">
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="45"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="45"/>
+      <c r="BQ4" s="45"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="46"/>
-      <c r="CL4" s="46"/>
-      <c r="CM4" s="46"/>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46"/>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="47"/>
+      <c r="BT4" s="45"/>
+      <c r="BU4" s="45"/>
+      <c r="BV4" s="45"/>
+      <c r="BW4" s="45"/>
+      <c r="BX4" s="45"/>
+      <c r="BY4" s="45"/>
+      <c r="BZ4" s="45"/>
+      <c r="CA4" s="45"/>
+      <c r="CB4" s="45"/>
+      <c r="CC4" s="45"/>
+      <c r="CD4" s="45"/>
+      <c r="CE4" s="45"/>
+      <c r="CF4" s="45"/>
+      <c r="CG4" s="45"/>
+      <c r="CH4" s="45"/>
+      <c r="CI4" s="45"/>
+      <c r="CJ4" s="45"/>
+      <c r="CK4" s="45"/>
+      <c r="CL4" s="45"/>
+      <c r="CM4" s="45"/>
+      <c r="CN4" s="45"/>
+      <c r="CO4" s="45"/>
+      <c r="CP4" s="45"/>
+      <c r="CQ4" s="45"/>
+      <c r="CR4" s="45"/>
+      <c r="CS4" s="45"/>
+      <c r="CT4" s="45"/>
+      <c r="CU4" s="45"/>
+      <c r="CV4" s="45"/>
+      <c r="CW4" s="46"/>
     </row>
     <row r="5" spans="1:101" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="24" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="5">
@@ -2543,140 +2550,140 @@
       </c>
     </row>
     <row r="6" spans="1:101" s="3" customFormat="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="11" t="str">
-        <f t="shared" ref="I6:AV6" si="58">+TEXT(J5,"aaa")</f>
-        <v>Tue</v>
+        <f t="shared" ref="J6:AN6" si="58">+TEXT(J5,"aaa")</f>
+        <v>화</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Wed</v>
+        <v>수</v>
       </c>
       <c r="L6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Thu</v>
+        <v>목</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Fri</v>
+        <v>금</v>
       </c>
       <c r="N6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Sat</v>
+        <v>토</v>
       </c>
       <c r="O6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Sun</v>
+        <v>일</v>
       </c>
       <c r="P6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Mon</v>
+        <v>월</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Tue</v>
+        <v>화</v>
       </c>
       <c r="R6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Wed</v>
+        <v>수</v>
       </c>
       <c r="S6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Thu</v>
+        <v>목</v>
       </c>
       <c r="T6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Fri</v>
+        <v>금</v>
       </c>
       <c r="U6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Sat</v>
+        <v>토</v>
       </c>
       <c r="V6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Sun</v>
+        <v>일</v>
       </c>
       <c r="W6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Mon</v>
+        <v>월</v>
       </c>
       <c r="X6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Tue</v>
+        <v>화</v>
       </c>
       <c r="Y6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Wed</v>
+        <v>수</v>
       </c>
       <c r="Z6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Thu</v>
+        <v>목</v>
       </c>
       <c r="AA6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Fri</v>
+        <v>금</v>
       </c>
       <c r="AB6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Sat</v>
+        <v>토</v>
       </c>
       <c r="AC6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Sun</v>
+        <v>일</v>
       </c>
       <c r="AD6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Mon</v>
+        <v>월</v>
       </c>
       <c r="AE6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Tue</v>
+        <v>화</v>
       </c>
       <c r="AF6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Wed</v>
+        <v>수</v>
       </c>
       <c r="AG6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Thu</v>
+        <v>목</v>
       </c>
       <c r="AH6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Fri</v>
+        <v>금</v>
       </c>
       <c r="AI6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Sat</v>
+        <v>토</v>
       </c>
       <c r="AJ6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Sun</v>
+        <v>일</v>
       </c>
       <c r="AK6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Mon</v>
+        <v>월</v>
       </c>
       <c r="AL6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Tue</v>
+        <v>화</v>
       </c>
       <c r="AM6" s="9" t="str">
         <f t="shared" si="58"/>
-        <v>Wed</v>
+        <v>수</v>
       </c>
       <c r="AN6" s="11" t="str">
         <f t="shared" si="58"/>
-        <v>Thu</v>
+        <v>목</v>
       </c>
       <c r="AO6" s="9" t="s">
         <v>44</v>
@@ -2863,32 +2870,32 @@
       </c>
     </row>
     <row r="7" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A7" s="58">
+      <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="35">
         <v>43735</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="27">
         <v>43738</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="28">
         <v>43741</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -2980,39 +2987,39 @@
       <c r="CW7" s="16"/>
     </row>
     <row r="8" spans="1:101" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="58">
+      <c r="A8" s="34">
         <v>2</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="35">
         <v>43735</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="27">
         <v>43743</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="27">
         <v>43748</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="18"/>
       <c r="J8" s="19"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
@@ -3097,28 +3104,28 @@
       <c r="CW8" s="20"/>
     </row>
     <row r="9" spans="1:101" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A9" s="58">
+      <c r="A9" s="34">
         <v>3</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="35">
         <v>43735</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="27">
         <v>43749</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="28">
         <v>43749</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="18"/>
       <c r="J9" s="19"/>
       <c r="K9" s="18"/>
@@ -3130,7 +3137,7 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="64"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
@@ -3214,28 +3221,28 @@
       <c r="CW9" s="20"/>
     </row>
     <row r="10" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A10" s="58">
+      <c r="A10" s="34">
         <v>4</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="35">
         <v>43735</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="27">
         <v>43750</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="28">
         <v>43753</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="14"/>
@@ -3248,10 +3255,10 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
@@ -3331,28 +3338,28 @@
       <c r="CW10" s="16"/>
     </row>
     <row r="11" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A11" s="58">
+      <c r="A11" s="34">
         <v>5</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="35">
         <v>43735</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="27">
         <v>43754</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="28">
         <v>43755</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="14"/>
@@ -3369,8 +3376,8 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -3448,28 +3455,28 @@
       <c r="CW11" s="16"/>
     </row>
     <row r="12" spans="1:101" ht="29.25" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="34">
         <v>6</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="35">
         <v>43735</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="27">
         <v>43756</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="28">
         <v>43757</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
       <c r="K12" s="14"/>
@@ -3488,8 +3495,8 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
@@ -3565,28 +3572,28 @@
       <c r="CW12" s="16"/>
     </row>
     <row r="13" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="34">
         <v>7</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="35">
         <v>43735</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="27">
         <v>43759</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="28">
         <v>43760</v>
       </c>
-      <c r="H13" s="53"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
       <c r="K13" s="14"/>
@@ -3607,8 +3614,8 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
@@ -3682,28 +3689,28 @@
       <c r="CW13" s="16"/>
     </row>
     <row r="14" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A14" s="58">
+      <c r="A14" s="34">
         <v>8</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="35">
         <v>43735</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="27">
         <v>43761</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="28">
         <v>43763</v>
       </c>
-      <c r="H14" s="53"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="14"/>
@@ -3726,9 +3733,9 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
       <c r="AH14" s="14"/>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
@@ -3799,28 +3806,28 @@
       <c r="CW14" s="16"/>
     </row>
     <row r="15" spans="1:101" ht="29.25" customHeight="1">
-      <c r="A15" s="58">
+      <c r="A15" s="34">
         <v>9</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="35">
         <v>43735</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="27">
         <v>43764</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="28">
         <v>43776</v>
       </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
       <c r="K15" s="14"/>
@@ -3846,20 +3853,20 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
       <c r="AG15" s="14"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="14"/>
       <c r="AX15" s="14"/>
@@ -3916,26 +3923,26 @@
       <c r="CW15" s="16"/>
     </row>
     <row r="16" spans="1:101" ht="29.25" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35">
         <v>43735</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="27">
         <v>43777</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="28">
         <v>43780</v>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
       <c r="K16" s="14"/>
@@ -3975,10 +3982,10 @@
       <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
       <c r="AU16" s="14"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
       <c r="AZ16" s="14"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
@@ -4031,26 +4038,26 @@
       <c r="CW16" s="16"/>
     </row>
     <row r="17" spans="1:101" ht="29.25" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35">
         <v>43735</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="27">
         <v>43781</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="28">
         <v>43783</v>
       </c>
-      <c r="H17" s="53"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
       <c r="K17" s="14"/>
@@ -4094,9 +4101,9 @@
       <c r="AW17" s="14"/>
       <c r="AX17" s="14"/>
       <c r="AY17" s="14"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
       <c r="BC17" s="23"/>
       <c r="BD17" s="14"/>
       <c r="BE17" s="14"/>
@@ -4146,26 +4153,26 @@
       <c r="CW17" s="16"/>
     </row>
     <row r="18" spans="1:101" ht="29.25" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35">
         <v>43735</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="27">
         <v>43784</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="28">
         <v>43787</v>
       </c>
-      <c r="H18" s="53"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
       <c r="K18" s="14"/>
@@ -4212,10 +4219,10 @@
       <c r="AZ18" s="14"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="67"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="62"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
       <c r="BG18" s="14"/>
       <c r="BH18" s="14"/>
       <c r="BI18" s="14"/>
@@ -4261,28 +4268,28 @@
       <c r="CW18" s="16"/>
     </row>
     <row r="19" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A19" s="58">
+      <c r="A19" s="34">
         <v>10</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="35">
         <v>43735</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="27">
         <v>43788</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="28">
         <v>43789</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
       <c r="K19" s="14"/>
@@ -4333,8 +4340,8 @@
       <c r="BD19" s="14"/>
       <c r="BE19" s="14"/>
       <c r="BF19" s="14"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
       <c r="BI19" s="14"/>
       <c r="BJ19" s="14"/>
       <c r="BK19" s="14"/>
@@ -4378,28 +4385,28 @@
       <c r="CW19" s="16"/>
     </row>
     <row r="20" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A20" s="58">
+      <c r="A20" s="34">
         <v>12</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="35">
         <v>43735</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="27">
         <v>43790</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="28">
         <v>43791</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
       <c r="K20" s="14"/>
@@ -4452,8 +4459,8 @@
       <c r="BF20" s="14"/>
       <c r="BG20" s="14"/>
       <c r="BH20" s="14"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
       <c r="BK20" s="14"/>
       <c r="BL20" s="14"/>
       <c r="BM20" s="14"/>
@@ -4495,28 +4502,28 @@
       <c r="CW20" s="16"/>
     </row>
     <row r="21" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A21" s="58">
+      <c r="A21" s="34">
         <v>13</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="35">
         <v>43735</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="27">
         <v>43792</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="28">
         <v>43795</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
       <c r="K21" s="14"/>
@@ -4571,10 +4578,10 @@
       <c r="BH21" s="14"/>
       <c r="BI21" s="14"/>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="62"/>
-      <c r="BL21" s="62"/>
-      <c r="BM21" s="62"/>
-      <c r="BN21" s="62"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="14"/>
       <c r="BQ21" s="14"/>
@@ -4612,29 +4619,29 @@
       <c r="CW21" s="16"/>
     </row>
     <row r="22" spans="1:101" ht="35.1" customHeight="1">
-      <c r="A22" s="58">
+      <c r="A22" s="34">
         <f t="shared" ref="A22" si="59">+A21+1</f>
         <v>14</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="35">
         <v>43735</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="27">
         <v>43796</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="28">
         <v>43799</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
       <c r="K22" s="14"/>
@@ -4693,10 +4700,10 @@
       <c r="BL22" s="14"/>
       <c r="BM22" s="14"/>
       <c r="BN22" s="14"/>
-      <c r="BO22" s="62"/>
-      <c r="BP22" s="62"/>
-      <c r="BQ22" s="62"/>
-      <c r="BR22" s="62"/>
+      <c r="BO22" s="38"/>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="38"/>
       <c r="BS22" s="15"/>
       <c r="BT22" s="14"/>
       <c r="BU22" s="14"/>
@@ -4734,25 +4741,25 @@
         <f t="shared" ref="A23:A27" si="60">+A22+1</f>
         <v>15</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="35">
         <v>43735</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="27">
         <v>43801</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="28">
         <v>43806</v>
       </c>
-      <c r="H23" s="53"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
       <c r="K23" s="14"/>
@@ -4767,7 +4774,7 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="60"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
@@ -4815,20 +4822,20 @@
       <c r="BP23" s="14"/>
       <c r="BQ23" s="14"/>
       <c r="BR23" s="14"/>
-      <c r="BS23" s="63"/>
-      <c r="BT23" s="62"/>
-      <c r="BU23" s="62"/>
-      <c r="BV23" s="62"/>
-      <c r="BW23" s="62"/>
-      <c r="BX23" s="62"/>
-      <c r="BY23" s="62"/>
+      <c r="BS23" s="39"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
       <c r="BZ23" s="14"/>
       <c r="CA23" s="14"/>
       <c r="CB23" s="14"/>
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="14"/>
-      <c r="CF23" s="60"/>
+      <c r="CF23" s="36"/>
       <c r="CG23" s="14"/>
       <c r="CH23" s="14"/>
       <c r="CI23" s="14"/>
@@ -4852,25 +4859,25 @@
         <f t="shared" si="60"/>
         <v>16</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="35">
         <v>43735</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="27">
         <v>43808</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="28">
         <v>43813</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="14"/>
@@ -4940,13 +4947,13 @@
       <c r="BW24" s="14"/>
       <c r="BX24" s="14"/>
       <c r="BY24" s="14"/>
-      <c r="BZ24" s="62"/>
-      <c r="CA24" s="62"/>
-      <c r="CB24" s="62"/>
-      <c r="CC24" s="62"/>
-      <c r="CD24" s="62"/>
-      <c r="CE24" s="62"/>
-      <c r="CF24" s="62"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="38"/>
+      <c r="CB24" s="38"/>
+      <c r="CC24" s="38"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="38"/>
+      <c r="CF24" s="38"/>
       <c r="CG24" s="14"/>
       <c r="CH24" s="14"/>
       <c r="CI24" s="14"/>
@@ -4970,25 +4977,25 @@
         <f t="shared" si="60"/>
         <v>17</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="35">
         <v>43735</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="27">
         <v>43815</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="28">
         <v>43820</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="14"/>
@@ -5065,13 +5072,13 @@
       <c r="CD25" s="14"/>
       <c r="CE25" s="14"/>
       <c r="CF25" s="14"/>
-      <c r="CG25" s="62"/>
-      <c r="CH25" s="62"/>
-      <c r="CI25" s="62"/>
-      <c r="CJ25" s="62"/>
-      <c r="CK25" s="62"/>
-      <c r="CL25" s="62"/>
-      <c r="CM25" s="62"/>
+      <c r="CG25" s="38"/>
+      <c r="CH25" s="38"/>
+      <c r="CI25" s="38"/>
+      <c r="CJ25" s="38"/>
+      <c r="CK25" s="38"/>
+      <c r="CL25" s="38"/>
+      <c r="CM25" s="38"/>
       <c r="CN25" s="14"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -5088,25 +5095,25 @@
         <f t="shared" si="60"/>
         <v>18</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="35">
         <v>43735</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="27">
         <v>43822</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="28">
         <v>43824</v>
       </c>
-      <c r="H26" s="53"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
       <c r="K26" s="14"/>
@@ -5190,10 +5197,10 @@
       <c r="CK26" s="14"/>
       <c r="CL26" s="14"/>
       <c r="CM26" s="14"/>
-      <c r="CN26" s="62"/>
-      <c r="CO26" s="62"/>
-      <c r="CP26" s="62"/>
-      <c r="CQ26" s="62"/>
+      <c r="CN26" s="38"/>
+      <c r="CO26" s="38"/>
+      <c r="CP26" s="38"/>
+      <c r="CQ26" s="38"/>
       <c r="CR26" s="14"/>
       <c r="CS26" s="14"/>
       <c r="CT26" s="14"/>
@@ -5206,25 +5213,25 @@
         <f t="shared" si="60"/>
         <v>19</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="35">
         <v>43735</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="27">
         <v>43825</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="28">
         <v>43830</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
       <c r="K27" s="14"/>
@@ -5312,21 +5319,17 @@
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
       <c r="CQ27" s="14"/>
-      <c r="CR27" s="62"/>
-      <c r="CS27" s="62"/>
-      <c r="CT27" s="62"/>
-      <c r="CU27" s="62"/>
-      <c r="CV27" s="62"/>
-      <c r="CW27" s="65"/>
+      <c r="CR27" s="38"/>
+      <c r="CS27" s="38"/>
+      <c r="CT27" s="38"/>
+      <c r="CU27" s="38"/>
+      <c r="CV27" s="38"/>
+      <c r="CW27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="BS4:CW4"/>
-    <mergeCell ref="AO4:BR4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -5334,8 +5337,12 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="BS4:CW4"/>
+    <mergeCell ref="AO4:BR4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I5:AN5 AO8:BR20 I7:AN27 I6:AV6">
